--- a/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
+++ b/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10E9516-68EB-6A4E-9853-0354E3B64FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816C737B-705D-474C-8813-80F882412265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="1" xr2:uid="{04456D6C-3434-7D45-90AA-5395189D27C9}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="2" xr2:uid="{04456D6C-3434-7D45-90AA-5395189D27C9}"/>
   </bookViews>
   <sheets>
     <sheet name="C9400(Alex)" sheetId="1" r:id="rId1"/>
     <sheet name="RULE" sheetId="2" r:id="rId2"/>
-    <sheet name="APPLICABLE_ORG" sheetId="4" r:id="rId3"/>
+    <sheet name="APPLICABLE_SCOPE" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>OK</t>
   </si>
@@ -152,15 +152,9 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>APPLICABLE_ORG</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
-    <t>use ';' to separate if multiple orgs</t>
-  </si>
-  <si>
     <t>C9400-SUP</t>
   </si>
   <si>
@@ -180,6 +174,12 @@
   </si>
   <si>
     <t>UABU</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>use ';' to separate if multiple values. Leave blank if no limitation</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,6 +370,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,176 +1161,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D059736E-4800-DC40-8384-8BFF6F616402}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="21">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="24">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="24">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="24">
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="E4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="24">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="18">
-        <v>2</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="24">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1337,34 +1310,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090F4BA-1546-C047-ABB4-2E9C572326B8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D045AF7-852C-D946-AB81-EDAF59F16D2E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>40</v>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
+++ b/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816C737B-705D-474C-8813-80F882412265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A446392-4A6D-F744-A435-FB0DBFAD4DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="2" xr2:uid="{04456D6C-3434-7D45-90AA-5395189D27C9}"/>
   </bookViews>
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
+++ b/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A446392-4A6D-F744-A435-FB0DBFAD4DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9384F-BD7D-5448-9913-AED6DEFBC20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="2" xr2:uid="{04456D6C-3434-7D45-90AA-5395189D27C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>OK</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>&gt;=</t>
-  </si>
-  <si>
-    <t>JMX</t>
   </si>
   <si>
     <t>C9400</t>
@@ -1196,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1213,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>26</v>
@@ -1222,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1239,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>26</v>
@@ -1248,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1265,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>34</v>
@@ -1274,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1291,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>34</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1311,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1325,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -1337,21 +1334,18 @@
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
+++ b/tracker/UABU C9400 PWR_LC_SUP combination rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9384F-BD7D-5448-9913-AED6DEFBC20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7DA1B4-EEE0-C24E-A303-271DD9B3BD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="2" xr2:uid="{04456D6C-3434-7D45-90AA-5395189D27C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>OK</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>use ';' to separate if multiple values. Leave blank if no limitation</t>
+  </si>
+  <si>
+    <t>JMX</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1314,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,6 +1341,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
